--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H2">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I2">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J2">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>4.269035777089596</v>
+        <v>6.896809925793334</v>
       </c>
       <c r="R2">
-        <v>4.269035777089596</v>
+        <v>62.07128933214</v>
       </c>
       <c r="S2">
-        <v>0.005337784880072565</v>
+        <v>0.006753128011550411</v>
       </c>
       <c r="T2">
-        <v>0.005337784880072565</v>
+        <v>0.007955061324412111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H3">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I3">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J3">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>140.4150871796728</v>
+        <v>210.6483790624378</v>
       </c>
       <c r="R3">
-        <v>140.4150871796728</v>
+        <v>1895.83541156194</v>
       </c>
       <c r="S3">
-        <v>0.1755678725636499</v>
+        <v>0.2062599208242794</v>
       </c>
       <c r="T3">
-        <v>0.1755678725636499</v>
+        <v>0.2429704155050995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.28723347559304</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H4">
-        <v>3.28723347559304</v>
+        <v>13.69217</v>
       </c>
       <c r="I4">
-        <v>0.2619145456295053</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J4">
-        <v>0.2619145456295053</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>64.78901823459329</v>
+        <v>0.13837307002</v>
       </c>
       <c r="R4">
-        <v>64.78901823459329</v>
+        <v>1.24535763018</v>
       </c>
       <c r="S4">
-        <v>0.08100888818578286</v>
+        <v>0.0001354903303484617</v>
       </c>
       <c r="T4">
-        <v>0.08100888818578286</v>
+        <v>0.0001596051318653168</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.51660025061893</v>
+        <v>4.564056666666667</v>
       </c>
       <c r="H5">
-        <v>2.51660025061893</v>
+        <v>13.69217</v>
       </c>
       <c r="I5">
-        <v>0.2005133544866459</v>
+        <v>0.3012303010600196</v>
       </c>
       <c r="J5">
-        <v>0.2005133544866459</v>
+        <v>0.3202575519860646</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>3.268236523597297</v>
+        <v>89.95582027643835</v>
       </c>
       <c r="R5">
-        <v>3.268236523597297</v>
+        <v>539.7349216586301</v>
       </c>
       <c r="S5">
-        <v>0.004086436472090602</v>
+        <v>0.08808176189384137</v>
       </c>
       <c r="T5">
-        <v>0.004086436472090602</v>
+        <v>0.06917247002468765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H6">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I6">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J6">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>107.4972758128454</v>
+        <v>4.02994459318</v>
       </c>
       <c r="R6">
-        <v>107.4972758128454</v>
+        <v>36.26950133862</v>
       </c>
       <c r="S6">
-        <v>0.1344091179938485</v>
+        <v>0.003945988364188462</v>
       </c>
       <c r="T6">
-        <v>0.1344091179938485</v>
+        <v>0.004648302145146078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.51660025061893</v>
+        <v>2.66687</v>
       </c>
       <c r="H7">
-        <v>2.51660025061893</v>
+        <v>8.00061</v>
       </c>
       <c r="I7">
-        <v>0.2005133544866459</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J7">
-        <v>0.2005133544866459</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>49.60038912268526</v>
+        <v>123.0860797091133</v>
       </c>
       <c r="R7">
-        <v>49.60038912268526</v>
+        <v>1107.77471738202</v>
       </c>
       <c r="S7">
-        <v>0.06201780002070675</v>
+        <v>0.1205218153985773</v>
       </c>
       <c r="T7">
-        <v>0.06201780002070675</v>
+        <v>0.1419724949364676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.15389905810854</v>
+        <v>2.66687</v>
       </c>
       <c r="H8">
-        <v>2.15389905810854</v>
+        <v>8.00061</v>
       </c>
       <c r="I8">
-        <v>0.1716146715239152</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J8">
-        <v>0.1716146715239152</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>2.797206893753138</v>
+        <v>0.08085416465999999</v>
       </c>
       <c r="R8">
-        <v>2.797206893753138</v>
+        <v>0.72768748194</v>
       </c>
       <c r="S8">
-        <v>0.003497485016180712</v>
+        <v>7.916972195708977E-05</v>
       </c>
       <c r="T8">
-        <v>0.003497485016180712</v>
+        <v>9.326048493795887E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.15389905810854</v>
+        <v>2.66687</v>
       </c>
       <c r="H9">
-        <v>2.15389905810854</v>
+        <v>8.00061</v>
       </c>
       <c r="I9">
-        <v>0.1716146715239152</v>
+        <v>0.1760149164788199</v>
       </c>
       <c r="J9">
-        <v>0.1716146715239152</v>
+        <v>0.187132921443075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>92.00439404930417</v>
+        <v>52.562992955965</v>
       </c>
       <c r="R9">
-        <v>92.00439404930417</v>
+        <v>315.3779577357901</v>
       </c>
       <c r="S9">
-        <v>0.1150376078111531</v>
+        <v>0.05146794299409707</v>
       </c>
       <c r="T9">
-        <v>0.1150376078111531</v>
+        <v>0.04041886387652332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.15389905810854</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H10">
-        <v>2.15389905810854</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I10">
-        <v>0.1716146715239152</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J10">
-        <v>0.1716146715239152</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.7092840273248</v>
+        <v>1.511114</v>
       </c>
       <c r="N10">
-        <v>19.7092840273248</v>
+        <v>4.533342</v>
       </c>
       <c r="O10">
-        <v>0.309295109941603</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P10">
-        <v>0.309295109941603</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q10">
-        <v>42.45180830244858</v>
+        <v>4.108187557576666</v>
       </c>
       <c r="R10">
-        <v>42.45180830244858</v>
+        <v>36.97368801819</v>
       </c>
       <c r="S10">
-        <v>0.05307957869658145</v>
+        <v>0.004022601285272129</v>
       </c>
       <c r="T10">
-        <v>0.05307957869658145</v>
+        <v>0.004738550765403316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.35873527311306</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H11">
-        <v>2.35873527311306</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I11">
-        <v>0.1879352598179054</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J11">
-        <v>0.1879352598179054</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29867130180628</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N11">
-        <v>1.29867130180628</v>
+        <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.02037987186715166</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P11">
-        <v>0.02037987186715166</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q11">
-        <v>3.063221807750129</v>
+        <v>125.4758445134989</v>
       </c>
       <c r="R11">
-        <v>3.063221807750129</v>
+        <v>1129.28260062149</v>
       </c>
       <c r="S11">
-        <v>0.003830096514408768</v>
+        <v>0.1228617939995762</v>
       </c>
       <c r="T11">
-        <v>0.003830096514408768</v>
+        <v>0.1447289469446215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.35873527311306</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H12">
-        <v>2.35873527311306</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I12">
-        <v>0.1879352598179054</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J12">
-        <v>0.1879352598179054</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>42.7152766063691</v>
+        <v>0.030318</v>
       </c>
       <c r="N12">
-        <v>42.7152766063691</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O12">
-        <v>0.6703250181912453</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P12">
-        <v>0.6703250181912453</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q12">
-        <v>100.7540296322239</v>
+        <v>0.08242398016999998</v>
       </c>
       <c r="R12">
-        <v>100.7540296322239</v>
+        <v>0.7418158215299998</v>
       </c>
       <c r="S12">
-        <v>0.1259777064562139</v>
+        <v>8.070683334737182E-05</v>
       </c>
       <c r="T12">
-        <v>0.1259777064562139</v>
+        <v>9.50711740513937E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.35873527311306</v>
+        <v>2.718648333333333</v>
       </c>
       <c r="H13">
-        <v>2.35873527311306</v>
+        <v>8.155944999999999</v>
       </c>
       <c r="I13">
-        <v>0.1879352598179054</v>
+        <v>0.1794323155335466</v>
       </c>
       <c r="J13">
-        <v>0.1879352598179054</v>
+        <v>0.1907661809510825</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.7092840273248</v>
+        <v>19.7096195</v>
       </c>
       <c r="N13">
-        <v>19.7092840273248</v>
+        <v>39.419239</v>
       </c>
       <c r="O13">
-        <v>0.309295109941603</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P13">
-        <v>0.309295109941603</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q13">
-        <v>46.48898344305483</v>
+        <v>53.58352420430916</v>
       </c>
       <c r="R13">
-        <v>46.48898344305483</v>
+        <v>321.501145225855</v>
       </c>
       <c r="S13">
-        <v>0.05812745684728278</v>
+        <v>0.05246721341535095</v>
       </c>
       <c r="T13">
-        <v>0.05812745684728278</v>
+        <v>0.04120361206700626</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.23431818352244</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H14">
-        <v>2.23431818352244</v>
+        <v>7.50382</v>
       </c>
       <c r="I14">
-        <v>0.1780221685420283</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J14">
-        <v>0.1780221685420283</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N14">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O14">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P14">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q14">
-        <v>2.90164490404453</v>
+        <v>3.779709151826667</v>
       </c>
       <c r="R14">
-        <v>2.90164490404453</v>
+        <v>34.01738236644</v>
       </c>
       <c r="S14">
-        <v>0.003628068984399012</v>
+        <v>0.003700966102205289</v>
       </c>
       <c r="T14">
-        <v>0.003628068984399012</v>
+        <v>0.004359670400480719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.23431818352244</v>
+        <v>2.501273333333333</v>
       </c>
       <c r="H15">
-        <v>2.23431818352244</v>
+        <v>7.50382</v>
       </c>
       <c r="I15">
-        <v>0.1780221685420283</v>
+        <v>0.1650854435564411</v>
       </c>
       <c r="J15">
-        <v>0.1780221685420283</v>
+        <v>0.1755130869499919</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N15">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P15">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q15">
-        <v>95.43951923580119</v>
+        <v>115.4431707885822</v>
       </c>
       <c r="R15">
-        <v>95.43951923580119</v>
+        <v>1038.98853709724</v>
       </c>
       <c r="S15">
-        <v>0.11933271336638</v>
+        <v>0.1130381319454582</v>
       </c>
       <c r="T15">
-        <v>0.11933271336638</v>
+        <v>0.1331568526592553</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.501273333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.50382</v>
+      </c>
+      <c r="I16">
+        <v>0.1650854435564411</v>
+      </c>
+      <c r="J16">
+        <v>0.1755130869499919</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>0.07583360491999999</v>
+      </c>
+      <c r="R16">
+        <v>0.68250244428</v>
+      </c>
+      <c r="S16">
+        <v>7.425375602810902E-05</v>
+      </c>
+      <c r="T16">
+        <v>8.74695669564139E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.501273333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.50382</v>
+      </c>
+      <c r="I17">
+        <v>0.1650854435564411</v>
+      </c>
+      <c r="J17">
+        <v>0.1755130869499919</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>49.29914566549667</v>
+      </c>
+      <c r="R17">
+        <v>295.7948739929801</v>
+      </c>
+      <c r="S17">
+        <v>0.04827209175274954</v>
+      </c>
+      <c r="T17">
+        <v>0.0379090943232995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.23431818352244</v>
-      </c>
-      <c r="H16">
-        <v>2.23431818352244</v>
-      </c>
-      <c r="I16">
-        <v>0.1780221685420283</v>
-      </c>
-      <c r="J16">
-        <v>0.1780221685420283</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q16">
-        <v>44.03681168646018</v>
-      </c>
-      <c r="R16">
-        <v>44.03681168646018</v>
-      </c>
-      <c r="S16">
-        <v>0.05506138619124921</v>
-      </c>
-      <c r="T16">
-        <v>0.05506138619124921</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.700538</v>
+      </c>
+      <c r="H18">
+        <v>5.401076</v>
+      </c>
+      <c r="I18">
+        <v>0.1782370233711727</v>
+      </c>
+      <c r="J18">
+        <v>0.1263302586697861</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>4.080820779332</v>
+      </c>
+      <c r="R18">
+        <v>24.484924675992</v>
+      </c>
+      <c r="S18">
+        <v>0.003995804641789356</v>
+      </c>
+      <c r="T18">
+        <v>0.003137989872884317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.700538</v>
+      </c>
+      <c r="H19">
+        <v>5.401076</v>
+      </c>
+      <c r="I19">
+        <v>0.1782370233711727</v>
+      </c>
+      <c r="J19">
+        <v>0.1263302586697861</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>124.6399845232387</v>
+      </c>
+      <c r="R19">
+        <v>747.8399071394318</v>
+      </c>
+      <c r="S19">
+        <v>0.1220433475620646</v>
+      </c>
+      <c r="T19">
+        <v>0.09584322133705762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.700538</v>
+      </c>
+      <c r="H20">
+        <v>5.401076</v>
+      </c>
+      <c r="I20">
+        <v>0.1782370233711727</v>
+      </c>
+      <c r="J20">
+        <v>0.1263302586697861</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.081874911084</v>
+      </c>
+      <c r="R20">
+        <v>0.4912494665039999</v>
+      </c>
+      <c r="S20">
+        <v>8.016920307122406E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.295857027736274E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.700538</v>
+      </c>
+      <c r="H21">
+        <v>5.401076</v>
+      </c>
+      <c r="I21">
+        <v>0.1782370233711727</v>
+      </c>
+      <c r="J21">
+        <v>0.1263302586697861</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>53.22657642529101</v>
+      </c>
+      <c r="R21">
+        <v>212.906305701164</v>
+      </c>
+      <c r="S21">
+        <v>0.05211770196424757</v>
+      </c>
+      <c r="T21">
+        <v>0.0272860888895668</v>
       </c>
     </row>
   </sheetData>
